--- a/ky/downloads/data-excel/8.6.1.xlsx
+++ b/ky/downloads/data-excel/8.6.1.xlsx
@@ -61,9 +61,6 @@
     <t xml:space="preserve">8.6.1 Доля молодежи (от 15 до 24 лет), которая не работает, не учится и не приобретает профессиональных навыков </t>
   </si>
   <si>
-    <t xml:space="preserve">8.6.1 Алар иштебеген, окубаган жана кесиптик көндүмдөрдү үйрөнбөгөн   (15 жаштан 24 жашка чейинки ) жаштардын үлүшү  </t>
-  </si>
-  <si>
     <t>Кыргызская Республика</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6.1 Иштебеген, окубаган жана кесиптик көндүмдөрдү үйрөнбөгөн (15 жаштан 24 жашка чейинки ) жаштардын үлүшү  </t>
   </si>
 </sst>
 </file>
@@ -697,14 +697,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1030,20 +1030,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:S7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="76" customFormat="1" ht="54" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>15</v>
+    <row r="1" spans="1:20" s="76" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="102" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>14</v>
@@ -1052,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="96" t="s">
         <v>8</v>
       </c>
@@ -1063,12 +1061,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -1126,16 +1124,19 @@
       <c r="S4" s="78">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="78">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="98" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="79">
         <v>16.7</v>
@@ -1185,8 +1186,11 @@
       <c r="S5" s="91">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="72" customFormat="1">
+      <c r="T5" s="91">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="72" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
@@ -1244,8 +1248,11 @@
       <c r="S6" s="92">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T6" s="92">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="72" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1303,33 +1310,36 @@
       <c r="S7" s="93">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="72" customFormat="1">
+      <c r="T7" s="93">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="72" customFormat="1">
       <c r="A8" s="75"/>
       <c r="B8" s="61"/>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="60"/>
       <c r="B9" s="61"/>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="56"/>
       <c r="B10" s="41"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="52"/>
       <c r="B11" s="40"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="F13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="62"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -1346,7 +1356,7 @@
       <c r="N14" s="65"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="66"/>
       <c r="B15" s="41"/>
       <c r="C15" s="67"/>
@@ -1363,7 +1373,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="68"/>
       <c r="B16" s="45"/>
       <c r="C16" s="69"/>
@@ -1772,21 +1782,21 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2"/>
@@ -2027,21 +2037,21 @@
       <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="101"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2"/>
@@ -2673,21 +2683,21 @@
       <c r="O92" s="9"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="101"/>
-      <c r="B93" s="101"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="101"/>
-      <c r="I93" s="101"/>
-      <c r="J93" s="101"/>
-      <c r="K93" s="101"/>
-      <c r="L93" s="101"/>
-      <c r="M93" s="101"/>
-      <c r="N93" s="101"/>
-      <c r="O93" s="101"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="100"/>
+      <c r="E93" s="100"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100"/>
+      <c r="I93" s="100"/>
+      <c r="J93" s="100"/>
+      <c r="K93" s="100"/>
+      <c r="L93" s="100"/>
+      <c r="M93" s="100"/>
+      <c r="N93" s="100"/>
+      <c r="O93" s="100"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2"/>
@@ -2928,21 +2938,21 @@
       <c r="O107" s="9"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="101"/>
-      <c r="B108" s="101"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="101"/>
-      <c r="H108" s="101"/>
-      <c r="I108" s="101"/>
-      <c r="J108" s="101"/>
-      <c r="K108" s="101"/>
-      <c r="L108" s="101"/>
-      <c r="M108" s="101"/>
-      <c r="N108" s="101"/>
-      <c r="O108" s="101"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="100"/>
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="I108" s="100"/>
+      <c r="J108" s="100"/>
+      <c r="K108" s="100"/>
+      <c r="L108" s="100"/>
+      <c r="M108" s="100"/>
+      <c r="N108" s="100"/>
+      <c r="O108" s="100"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2"/>
@@ -3183,21 +3193,21 @@
       <c r="O122" s="9"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="101"/>
-      <c r="B123" s="101"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="101"/>
-      <c r="K123" s="101"/>
-      <c r="L123" s="101"/>
-      <c r="M123" s="101"/>
-      <c r="N123" s="101"/>
-      <c r="O123" s="101"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="100"/>
+      <c r="D123" s="100"/>
+      <c r="E123" s="100"/>
+      <c r="F123" s="100"/>
+      <c r="G123" s="100"/>
+      <c r="H123" s="100"/>
+      <c r="I123" s="100"/>
+      <c r="J123" s="100"/>
+      <c r="K123" s="100"/>
+      <c r="L123" s="100"/>
+      <c r="M123" s="100"/>
+      <c r="N123" s="100"/>
+      <c r="O123" s="100"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="2"/>
@@ -3574,21 +3584,21 @@
       <c r="O145" s="9"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="101"/>
-      <c r="B146" s="101"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="101"/>
-      <c r="F146" s="101"/>
-      <c r="G146" s="101"/>
-      <c r="H146" s="101"/>
-      <c r="I146" s="101"/>
-      <c r="J146" s="101"/>
-      <c r="K146" s="101"/>
-      <c r="L146" s="101"/>
-      <c r="M146" s="101"/>
-      <c r="N146" s="101"/>
-      <c r="O146" s="101"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="100"/>
+      <c r="F146" s="100"/>
+      <c r="G146" s="100"/>
+      <c r="H146" s="100"/>
+      <c r="I146" s="100"/>
+      <c r="J146" s="100"/>
+      <c r="K146" s="100"/>
+      <c r="L146" s="100"/>
+      <c r="M146" s="100"/>
+      <c r="N146" s="100"/>
+      <c r="O146" s="100"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2"/>
@@ -3829,21 +3839,21 @@
       <c r="O160" s="9"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="101"/>
-      <c r="B161" s="101"/>
-      <c r="C161" s="101"/>
-      <c r="D161" s="101"/>
-      <c r="E161" s="101"/>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
-      <c r="H161" s="101"/>
-      <c r="I161" s="101"/>
-      <c r="J161" s="101"/>
-      <c r="K161" s="101"/>
-      <c r="L161" s="101"/>
-      <c r="M161" s="101"/>
-      <c r="N161" s="101"/>
-      <c r="O161" s="101"/>
+      <c r="A161" s="100"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="100"/>
+      <c r="E161" s="100"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="100"/>
+      <c r="H161" s="100"/>
+      <c r="I161" s="100"/>
+      <c r="J161" s="100"/>
+      <c r="K161" s="100"/>
+      <c r="L161" s="100"/>
+      <c r="M161" s="100"/>
+      <c r="N161" s="100"/>
+      <c r="O161" s="100"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="2"/>
